--- a/excel-example/China14 invoices/25HS10047P-PI  Final 3.13.xlsx
+++ b/excel-example/China14 invoices/25HS10047P-PI  Final 3.13.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\РАБОТА\Китай\Китай 14 HISENER( № 25HS10047P )  24.02 ( контракт ОБЩИЙ 1303-2025 ) подтвержден\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\IdeaProjects\labeling-project\excel-example\China14 invoices\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="122">
   <si>
     <t>spreadsheet.junzeng.H4sIAAAAAAAAAKuuBQBDv6ajAgAAAA==</t>
   </si>
@@ -412,11 +412,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
-    <numFmt numFmtId="168" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="169" formatCode="###0"/>
-    <numFmt numFmtId="170" formatCode="###0.000"/>
-    <numFmt numFmtId="171" formatCode="###0.00"/>
-    <numFmt numFmtId="172" formatCode="###0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="165" formatCode="###0"/>
+    <numFmt numFmtId="166" formatCode="###0.000"/>
+    <numFmt numFmtId="167" formatCode="###0.00"/>
+    <numFmt numFmtId="168" formatCode="###0.0000"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -503,12 +503,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="15">
@@ -698,7 +704,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -737,7 +743,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -746,7 +752,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -773,22 +779,22 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
@@ -806,6 +812,63 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -821,68 +884,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1461,18 +1467,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="0.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" style="1" customWidth="1"/>
+    <col min="1" max="2" width="4.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="1" customWidth="1"/>
+    <col min="4" max="6" width="7.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="6" style="1" customWidth="1"/>
     <col min="9" max="9" width="5.140625" style="1" customWidth="1"/>
@@ -1492,95 +1495,95 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="29.85" customHeight="1">
-      <c r="B2" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
+      <c r="B2" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
       <c r="E2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
     </row>
     <row r="3" spans="1:15" ht="21.2" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
       <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
     </row>
     <row r="4" spans="1:15" ht="21.2" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
       <c r="E4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
     </row>
     <row r="5" spans="1:15" ht="21.2" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
       <c r="E5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
     </row>
     <row r="6" spans="1:15" ht="1.7" customHeight="1">
       <c r="A6" s="6" t="s">
@@ -1633,22 +1636,22 @@
       <c r="A7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
     </row>
     <row r="8" spans="1:15" ht="1.7" customHeight="1">
       <c r="A8" s="4" t="s">
@@ -1698,82 +1701,82 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="21.2" customHeight="1">
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="44" t="s">
+      <c r="C9" s="42"/>
+      <c r="D9" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="43" t="s">
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="M9" s="43"/>
-      <c r="N9" s="44" t="s">
+      <c r="M9" s="42"/>
+      <c r="N9" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="O9" s="44"/>
+      <c r="O9" s="43"/>
     </row>
     <row r="10" spans="1:15" ht="21.2" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="44" t="s">
+      <c r="C10" s="42"/>
+      <c r="D10" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="43" t="s">
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="43"/>
-      <c r="N10" s="44" t="s">
+      <c r="M10" s="42"/>
+      <c r="N10" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="44"/>
+      <c r="O10" s="43"/>
     </row>
     <row r="11" spans="1:15" ht="42.6" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="45" t="s">
+      <c r="C11" s="42"/>
+      <c r="D11" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="46" t="s">
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="M11" s="46"/>
-      <c r="N11" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="O11" s="45"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="O11" s="47"/>
     </row>
     <row r="12" spans="1:15" ht="4.3499999999999996" customHeight="1">
       <c r="A12" s="4" t="s">
@@ -1920,38 +1923,38 @@
       <c r="A15" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47" t="s">
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47" t="s">
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47" t="s">
+      <c r="K15" s="54"/>
+      <c r="L15" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="M15" s="47"/>
-      <c r="N15" s="48" t="s">
+      <c r="M15" s="54"/>
+      <c r="N15" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="O15" s="48"/>
+      <c r="O15" s="55"/>
     </row>
     <row r="16" spans="1:15" ht="25.5" customHeight="1">
       <c r="A16" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="62"/>
+      <c r="B16" s="56"/>
       <c r="C16" s="12" t="s">
         <v>24</v>
       </c>
@@ -2046,21 +2049,21 @@
       <c r="B18" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63"/>
     </row>
     <row r="19" spans="1:17" ht="21.2" customHeight="1">
       <c r="A19" s="4" t="s">
@@ -3035,21 +3038,21 @@
       <c r="B39" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="49" t="s">
+      <c r="C39" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="49"/>
-      <c r="L39" s="49"/>
-      <c r="M39" s="49"/>
-      <c r="N39" s="49"/>
-      <c r="O39" s="49"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="63"/>
+      <c r="K39" s="63"/>
+      <c r="L39" s="63"/>
+      <c r="M39" s="63"/>
+      <c r="N39" s="63"/>
+      <c r="O39" s="63"/>
     </row>
     <row r="40" spans="1:15" ht="21.2" customHeight="1">
       <c r="A40" s="4" t="s">
@@ -3152,21 +3155,21 @@
       <c r="B42" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="49" t="s">
+      <c r="C42" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="49"/>
-      <c r="K42" s="49"/>
-      <c r="L42" s="49"/>
-      <c r="M42" s="49"/>
-      <c r="N42" s="49"/>
-      <c r="O42" s="49"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="63"/>
+      <c r="K42" s="63"/>
+      <c r="L42" s="63"/>
+      <c r="M42" s="63"/>
+      <c r="N42" s="63"/>
+      <c r="O42" s="63"/>
     </row>
     <row r="43" spans="1:15" ht="21.2" customHeight="1">
       <c r="A43" s="4" t="s">
@@ -3269,21 +3272,21 @@
       <c r="B45" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="49" t="s">
+      <c r="C45" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
-      <c r="K45" s="49"/>
-      <c r="L45" s="49"/>
-      <c r="M45" s="49"/>
-      <c r="N45" s="49"/>
-      <c r="O45" s="49"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="63"/>
+      <c r="I45" s="63"/>
+      <c r="J45" s="63"/>
+      <c r="K45" s="63"/>
+      <c r="L45" s="63"/>
+      <c r="M45" s="63"/>
+      <c r="N45" s="63"/>
+      <c r="O45" s="63"/>
     </row>
     <row r="46" spans="1:15" ht="21.2" customHeight="1">
       <c r="A46" s="4" t="s">
@@ -3383,24 +3386,22 @@
       <c r="A48" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B48" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" s="49" t="s">
+      <c r="B48" s="14"/>
+      <c r="C48" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="49"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="49"/>
-      <c r="J48" s="49"/>
-      <c r="K48" s="49"/>
-      <c r="L48" s="49"/>
-      <c r="M48" s="49"/>
-      <c r="N48" s="49"/>
-      <c r="O48" s="49"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="63"/>
+      <c r="J48" s="63"/>
+      <c r="K48" s="63"/>
+      <c r="L48" s="63"/>
+      <c r="M48" s="63"/>
+      <c r="N48" s="63"/>
+      <c r="O48" s="63"/>
     </row>
     <row r="49" spans="1:15" ht="21.2" customHeight="1">
       <c r="A49" s="4" t="s">
@@ -3503,21 +3504,21 @@
       <c r="B51" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="49" t="s">
+      <c r="C51" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="D51" s="49"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="49"/>
-      <c r="J51" s="49"/>
-      <c r="K51" s="49"/>
-      <c r="L51" s="49"/>
-      <c r="M51" s="49"/>
-      <c r="N51" s="49"/>
-      <c r="O51" s="49"/>
+      <c r="D51" s="63"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="63"/>
+      <c r="G51" s="63"/>
+      <c r="H51" s="63"/>
+      <c r="I51" s="63"/>
+      <c r="J51" s="63"/>
+      <c r="K51" s="63"/>
+      <c r="L51" s="63"/>
+      <c r="M51" s="63"/>
+      <c r="N51" s="63"/>
+      <c r="O51" s="63"/>
     </row>
     <row r="52" spans="1:15" ht="21.2" customHeight="1">
       <c r="A52" s="4" t="s">
@@ -3620,21 +3621,21 @@
       <c r="B54" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C54" s="49" t="s">
+      <c r="C54" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="D54" s="49"/>
-      <c r="E54" s="49"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="49"/>
-      <c r="J54" s="49"/>
-      <c r="K54" s="49"/>
-      <c r="L54" s="49"/>
-      <c r="M54" s="49"/>
-      <c r="N54" s="49"/>
-      <c r="O54" s="49"/>
+      <c r="D54" s="63"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="63"/>
+      <c r="J54" s="63"/>
+      <c r="K54" s="63"/>
+      <c r="L54" s="63"/>
+      <c r="M54" s="63"/>
+      <c r="N54" s="63"/>
+      <c r="O54" s="63"/>
     </row>
     <row r="55" spans="1:15" ht="21.2" customHeight="1">
       <c r="A55" s="4" t="s">
@@ -3916,28 +3917,28 @@
       <c r="A61" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B61" s="53" t="s">
+      <c r="B61" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="C61" s="53"/>
-      <c r="D61" s="53"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="49"/>
       <c r="E61" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="F61" s="53" t="s">
+      <c r="F61" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="G61" s="53"/>
-      <c r="H61" s="53"/>
-      <c r="I61" s="53"/>
-      <c r="J61" s="53"/>
+      <c r="G61" s="49"/>
+      <c r="H61" s="49"/>
+      <c r="I61" s="49"/>
+      <c r="J61" s="49"/>
       <c r="K61" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="L61" s="53" t="s">
+      <c r="L61" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="M61" s="53"/>
+      <c r="M61" s="49"/>
       <c r="N61" s="33" t="s">
         <v>1</v>
       </c>
@@ -3949,276 +3950,276 @@
       <c r="A62" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="43" t="s">
+      <c r="B62" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="C62" s="43"/>
-      <c r="D62" s="43"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="42"/>
       <c r="E62" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F62" s="44" t="s">
+      <c r="F62" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="G62" s="44"/>
-      <c r="H62" s="44"/>
-      <c r="I62" s="44"/>
-      <c r="J62" s="44"/>
-      <c r="K62" s="44"/>
-      <c r="L62" s="44"/>
-      <c r="M62" s="44"/>
-      <c r="N62" s="44"/>
-      <c r="O62" s="44"/>
+      <c r="G62" s="43"/>
+      <c r="H62" s="43"/>
+      <c r="I62" s="43"/>
+      <c r="J62" s="43"/>
+      <c r="K62" s="43"/>
+      <c r="L62" s="43"/>
+      <c r="M62" s="43"/>
+      <c r="N62" s="43"/>
+      <c r="O62" s="43"/>
     </row>
     <row r="63" spans="1:15" ht="21.2" customHeight="1">
       <c r="A63" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B63" s="43" t="s">
+      <c r="B63" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="C63" s="43"/>
-      <c r="D63" s="43"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="42"/>
       <c r="E63" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F63" s="44" t="s">
+      <c r="F63" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="G63" s="44"/>
-      <c r="H63" s="44"/>
-      <c r="I63" s="44"/>
-      <c r="J63" s="44"/>
-      <c r="K63" s="44"/>
-      <c r="L63" s="44"/>
-      <c r="M63" s="44"/>
-      <c r="N63" s="44"/>
-      <c r="O63" s="44"/>
+      <c r="G63" s="43"/>
+      <c r="H63" s="43"/>
+      <c r="I63" s="43"/>
+      <c r="J63" s="43"/>
+      <c r="K63" s="43"/>
+      <c r="L63" s="43"/>
+      <c r="M63" s="43"/>
+      <c r="N63" s="43"/>
+      <c r="O63" s="43"/>
     </row>
     <row r="64" spans="1:15" ht="21.2" customHeight="1">
       <c r="A64" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B64" s="43" t="s">
+      <c r="B64" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="C64" s="43"/>
-      <c r="D64" s="43"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="42"/>
       <c r="E64" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F64" s="44" t="s">
+      <c r="F64" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="G64" s="44"/>
-      <c r="H64" s="44"/>
-      <c r="I64" s="44"/>
-      <c r="J64" s="44"/>
-      <c r="K64" s="44"/>
-      <c r="L64" s="44"/>
-      <c r="M64" s="44"/>
-      <c r="N64" s="44"/>
-      <c r="O64" s="44"/>
+      <c r="G64" s="43"/>
+      <c r="H64" s="43"/>
+      <c r="I64" s="43"/>
+      <c r="J64" s="43"/>
+      <c r="K64" s="43"/>
+      <c r="L64" s="43"/>
+      <c r="M64" s="43"/>
+      <c r="N64" s="43"/>
+      <c r="O64" s="43"/>
     </row>
     <row r="65" spans="1:15" ht="21.2" customHeight="1">
       <c r="A65" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="43" t="s">
+      <c r="B65" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="C65" s="43"/>
-      <c r="D65" s="43"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="42"/>
       <c r="E65" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F65" s="44" t="s">
+      <c r="F65" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="G65" s="44"/>
-      <c r="H65" s="44"/>
-      <c r="I65" s="44"/>
-      <c r="J65" s="44"/>
-      <c r="K65" s="44"/>
-      <c r="L65" s="43" t="s">
+      <c r="G65" s="43"/>
+      <c r="H65" s="43"/>
+      <c r="I65" s="43"/>
+      <c r="J65" s="43"/>
+      <c r="K65" s="43"/>
+      <c r="L65" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="M65" s="43"/>
-      <c r="N65" s="44" t="s">
+      <c r="M65" s="42"/>
+      <c r="N65" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="O65" s="44"/>
+      <c r="O65" s="43"/>
     </row>
     <row r="66" spans="1:15" ht="21.2" customHeight="1">
       <c r="A66" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B66" s="43" t="s">
+      <c r="B66" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
       <c r="E66" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F66" s="44" t="s">
+      <c r="F66" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="G66" s="44"/>
-      <c r="H66" s="44"/>
-      <c r="I66" s="44"/>
-      <c r="J66" s="44"/>
-      <c r="K66" s="44"/>
-      <c r="L66" s="44"/>
-      <c r="M66" s="44"/>
-      <c r="N66" s="44"/>
-      <c r="O66" s="44"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="43"/>
+      <c r="K66" s="43"/>
+      <c r="L66" s="43"/>
+      <c r="M66" s="43"/>
+      <c r="N66" s="43"/>
+      <c r="O66" s="43"/>
     </row>
     <row r="67" spans="1:15" ht="21.2" customHeight="1">
       <c r="A67" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B67" s="43" t="s">
+      <c r="B67" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="C67" s="43"/>
-      <c r="D67" s="43"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
       <c r="E67" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F67" s="44" t="s">
+      <c r="F67" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="G67" s="44"/>
-      <c r="H67" s="44"/>
-      <c r="I67" s="44"/>
-      <c r="J67" s="44"/>
-      <c r="K67" s="44"/>
-      <c r="L67" s="44"/>
-      <c r="M67" s="44"/>
-      <c r="N67" s="44"/>
-      <c r="O67" s="44"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="43"/>
+      <c r="I67" s="43"/>
+      <c r="J67" s="43"/>
+      <c r="K67" s="43"/>
+      <c r="L67" s="43"/>
+      <c r="M67" s="43"/>
+      <c r="N67" s="43"/>
+      <c r="O67" s="43"/>
     </row>
     <row r="68" spans="1:15" ht="19.5" customHeight="1">
       <c r="A68" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="54" t="s">
+      <c r="B68" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="C68" s="54"/>
-      <c r="D68" s="54"/>
-      <c r="E68" s="54"/>
-      <c r="F68" s="54"/>
-      <c r="G68" s="54"/>
-      <c r="H68" s="54"/>
-      <c r="I68" s="54"/>
-      <c r="J68" s="54"/>
-      <c r="K68" s="54"/>
-      <c r="L68" s="54"/>
-      <c r="M68" s="54"/>
-      <c r="N68" s="54"/>
-      <c r="O68" s="54"/>
+      <c r="C68" s="48"/>
+      <c r="D68" s="48"/>
+      <c r="E68" s="48"/>
+      <c r="F68" s="48"/>
+      <c r="G68" s="48"/>
+      <c r="H68" s="48"/>
+      <c r="I68" s="48"/>
+      <c r="J68" s="48"/>
+      <c r="K68" s="48"/>
+      <c r="L68" s="48"/>
+      <c r="M68" s="48"/>
+      <c r="N68" s="48"/>
+      <c r="O68" s="48"/>
     </row>
     <row r="69" spans="1:15" ht="33.200000000000003" customHeight="1">
       <c r="A69" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B69" s="43" t="s">
+      <c r="B69" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="C69" s="43"/>
-      <c r="D69" s="43"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="42"/>
       <c r="E69" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F69" s="45" t="s">
+      <c r="F69" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="G69" s="45"/>
-      <c r="H69" s="45"/>
-      <c r="I69" s="45"/>
-      <c r="J69" s="45"/>
-      <c r="K69" s="45"/>
-      <c r="L69" s="45"/>
-      <c r="M69" s="45"/>
-      <c r="N69" s="45"/>
-      <c r="O69" s="45"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="47"/>
+      <c r="I69" s="47"/>
+      <c r="J69" s="47"/>
+      <c r="K69" s="47"/>
+      <c r="L69" s="47"/>
+      <c r="M69" s="47"/>
+      <c r="N69" s="47"/>
+      <c r="O69" s="47"/>
     </row>
     <row r="70" spans="1:15" ht="33.200000000000003" customHeight="1">
       <c r="A70" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="43" t="s">
+      <c r="B70" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="C70" s="43"/>
-      <c r="D70" s="43"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="42"/>
       <c r="E70" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F70" s="45" t="s">
+      <c r="F70" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="G70" s="45"/>
-      <c r="H70" s="45"/>
-      <c r="I70" s="45"/>
-      <c r="J70" s="45"/>
-      <c r="K70" s="45"/>
-      <c r="L70" s="45"/>
-      <c r="M70" s="45"/>
-      <c r="N70" s="45"/>
-      <c r="O70" s="45"/>
+      <c r="G70" s="47"/>
+      <c r="H70" s="47"/>
+      <c r="I70" s="47"/>
+      <c r="J70" s="47"/>
+      <c r="K70" s="47"/>
+      <c r="L70" s="47"/>
+      <c r="M70" s="47"/>
+      <c r="N70" s="47"/>
+      <c r="O70" s="47"/>
     </row>
     <row r="71" spans="1:15" ht="21.2" customHeight="1">
       <c r="A71" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B71" s="43" t="s">
+      <c r="B71" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="C71" s="43"/>
-      <c r="D71" s="43"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="42"/>
       <c r="E71" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F71" s="44" t="s">
+      <c r="F71" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="G71" s="44"/>
-      <c r="H71" s="44"/>
-      <c r="I71" s="44"/>
-      <c r="J71" s="44"/>
-      <c r="K71" s="44"/>
-      <c r="L71" s="44"/>
-      <c r="M71" s="44"/>
-      <c r="N71" s="44"/>
-      <c r="O71" s="44"/>
+      <c r="G71" s="43"/>
+      <c r="H71" s="43"/>
+      <c r="I71" s="43"/>
+      <c r="J71" s="43"/>
+      <c r="K71" s="43"/>
+      <c r="L71" s="43"/>
+      <c r="M71" s="43"/>
+      <c r="N71" s="43"/>
+      <c r="O71" s="43"/>
     </row>
     <row r="72" spans="1:15" ht="21.2" customHeight="1">
       <c r="A72" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B72" s="43" t="s">
+      <c r="B72" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="C72" s="43"/>
-      <c r="D72" s="43"/>
+      <c r="C72" s="42"/>
+      <c r="D72" s="42"/>
       <c r="E72" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F72" s="44" t="s">
+      <c r="F72" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="G72" s="44"/>
-      <c r="H72" s="44"/>
-      <c r="I72" s="44"/>
-      <c r="J72" s="44"/>
-      <c r="K72" s="44"/>
-      <c r="L72" s="44"/>
-      <c r="M72" s="44"/>
-      <c r="N72" s="44"/>
-      <c r="O72" s="44"/>
+      <c r="G72" s="43"/>
+      <c r="H72" s="43"/>
+      <c r="I72" s="43"/>
+      <c r="J72" s="43"/>
+      <c r="K72" s="43"/>
+      <c r="L72" s="43"/>
+      <c r="M72" s="43"/>
+      <c r="N72" s="43"/>
+      <c r="O72" s="43"/>
     </row>
     <row r="73" spans="1:15" ht="89.25" customHeight="1">
       <c r="A73" s="4" t="s">
@@ -4227,27 +4228,27 @@
       <c r="B73" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C73" s="55" t="s">
+      <c r="C73" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D73" s="55"/>
-      <c r="E73" s="55"/>
-      <c r="F73" s="55"/>
-      <c r="G73" s="55"/>
+      <c r="D73" s="44"/>
+      <c r="E73" s="44"/>
+      <c r="F73" s="44"/>
+      <c r="G73" s="44"/>
       <c r="H73" s="8" t="s">
         <v>1</v>
       </c>
       <c r="I73" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="J73" s="56" t="s">
+      <c r="J73" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="K73" s="56"/>
-      <c r="L73" s="56"/>
-      <c r="M73" s="56"/>
-      <c r="N73" s="56"/>
-      <c r="O73" s="56"/>
+      <c r="K73" s="45"/>
+      <c r="L73" s="45"/>
+      <c r="M73" s="45"/>
+      <c r="N73" s="45"/>
+      <c r="O73" s="45"/>
     </row>
     <row r="74" spans="1:15" ht="21.2" customHeight="1">
       <c r="A74" s="4" t="s">
@@ -4256,37 +4257,37 @@
       <c r="B74" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C74" s="57" t="s">
+      <c r="C74" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="D74" s="57"/>
-      <c r="E74" s="57"/>
-      <c r="F74" s="57"/>
-      <c r="G74" s="57"/>
+      <c r="D74" s="46"/>
+      <c r="E74" s="46"/>
+      <c r="F74" s="46"/>
+      <c r="G74" s="46"/>
       <c r="H74" s="8" t="s">
         <v>1</v>
       </c>
       <c r="I74" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="J74" s="57" t="s">
+      <c r="J74" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="K74" s="57"/>
-      <c r="L74" s="57"/>
-      <c r="M74" s="57"/>
-      <c r="N74" s="57"/>
-      <c r="O74" s="57"/>
+      <c r="K74" s="46"/>
+      <c r="L74" s="46"/>
+      <c r="M74" s="46"/>
+      <c r="N74" s="46"/>
+      <c r="O74" s="46"/>
     </row>
     <row r="75" spans="1:15" ht="25.5" customHeight="1">
       <c r="A75" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B75" s="58" t="s">
+      <c r="B75" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="C75" s="58"/>
-      <c r="D75" s="58"/>
+      <c r="C75" s="39"/>
+      <c r="D75" s="39"/>
       <c r="E75" s="3" t="s">
         <v>1</v>
       </c>
@@ -4325,167 +4326,127 @@
       <c r="A76" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B76" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="C76" s="59"/>
-      <c r="D76" s="59"/>
-      <c r="E76" s="59"/>
-      <c r="F76" s="59"/>
-      <c r="G76" s="59"/>
-      <c r="H76" s="59"/>
-      <c r="I76" s="59"/>
-      <c r="J76" s="59"/>
-      <c r="K76" s="59"/>
-      <c r="L76" s="59"/>
-      <c r="M76" s="59"/>
-      <c r="N76" s="59"/>
-      <c r="O76" s="59"/>
+      <c r="B76" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="40"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="40"/>
+      <c r="F76" s="40"/>
+      <c r="G76" s="40"/>
+      <c r="H76" s="40"/>
+      <c r="I76" s="40"/>
+      <c r="J76" s="40"/>
+      <c r="K76" s="40"/>
+      <c r="L76" s="40"/>
+      <c r="M76" s="40"/>
+      <c r="N76" s="40"/>
+      <c r="O76" s="40"/>
     </row>
     <row r="77" spans="1:15" ht="19.5" customHeight="1">
       <c r="A77" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B77" s="60" t="s">
+      <c r="B77" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="C77" s="60"/>
-      <c r="D77" s="60"/>
+      <c r="C77" s="41"/>
+      <c r="D77" s="41"/>
       <c r="E77" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="F77" s="60" t="s">
+      <c r="F77" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="G77" s="60"/>
-      <c r="H77" s="60"/>
-      <c r="I77" s="60"/>
-      <c r="J77" s="60" t="s">
+      <c r="G77" s="41"/>
+      <c r="H77" s="41"/>
+      <c r="I77" s="41"/>
+      <c r="J77" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="K77" s="60"/>
-      <c r="L77" s="60"/>
-      <c r="M77" s="60" t="s">
+      <c r="K77" s="41"/>
+      <c r="L77" s="41"/>
+      <c r="M77" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="N77" s="60"/>
-      <c r="O77" s="60"/>
+      <c r="N77" s="41"/>
+      <c r="O77" s="41"/>
     </row>
     <row r="78" spans="1:15" ht="19.5" customHeight="1">
       <c r="A78" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B78" s="61" t="s">
+      <c r="B78" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="C78" s="61"/>
-      <c r="D78" s="61"/>
+      <c r="C78" s="38"/>
+      <c r="D78" s="38"/>
       <c r="E78" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="F78" s="61" t="s">
+      <c r="F78" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="G78" s="61"/>
-      <c r="H78" s="61"/>
-      <c r="I78" s="61"/>
-      <c r="J78" s="61" t="s">
+      <c r="G78" s="38"/>
+      <c r="H78" s="38"/>
+      <c r="I78" s="38"/>
+      <c r="J78" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="K78" s="61"/>
-      <c r="L78" s="61"/>
-      <c r="M78" s="61" t="s">
+      <c r="K78" s="38"/>
+      <c r="L78" s="38"/>
+      <c r="M78" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="N78" s="61"/>
-      <c r="O78" s="61"/>
+      <c r="N78" s="38"/>
+      <c r="O78" s="38"/>
     </row>
     <row r="79" spans="1:15" ht="19.5" customHeight="1">
       <c r="A79" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B79" s="61" t="s">
+      <c r="B79" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="C79" s="61"/>
-      <c r="D79" s="61"/>
+      <c r="C79" s="38"/>
+      <c r="D79" s="38"/>
       <c r="E79" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="F79" s="61" t="s">
+      <c r="F79" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="G79" s="61"/>
-      <c r="H79" s="61"/>
-      <c r="I79" s="61"/>
-      <c r="J79" s="61" t="s">
+      <c r="G79" s="38"/>
+      <c r="H79" s="38"/>
+      <c r="I79" s="38"/>
+      <c r="J79" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="K79" s="61"/>
-      <c r="L79" s="61"/>
-      <c r="M79" s="61" t="s">
+      <c r="K79" s="38"/>
+      <c r="L79" s="38"/>
+      <c r="M79" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="N79" s="61"/>
-      <c r="O79" s="61"/>
+      <c r="N79" s="38"/>
+      <c r="O79" s="38"/>
     </row>
     <row r="80" spans="1:15" ht="1.7" customHeight="1"/>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="J78:L78"/>
-    <mergeCell ref="M78:O78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="J79:L79"/>
-    <mergeCell ref="M79:O79"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:O76"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="F77:I77"/>
-    <mergeCell ref="J77:L77"/>
-    <mergeCell ref="M77:O77"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="F72:O72"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="J73:O73"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="J74:O74"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="F69:O69"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="F70:O70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="F71:O71"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="F66:O66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="F67:O67"/>
-    <mergeCell ref="B68:O68"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="F63:O63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="F64:O64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="F65:K65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="F62:O62"/>
-    <mergeCell ref="C51:O51"/>
-    <mergeCell ref="C54:O54"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="C18:O18"/>
-    <mergeCell ref="C39:O39"/>
-    <mergeCell ref="C42:O42"/>
-    <mergeCell ref="C45:O45"/>
-    <mergeCell ref="C48:O48"/>
+    <mergeCell ref="F2:O2"/>
+    <mergeCell ref="F3:O3"/>
+    <mergeCell ref="F4:O4"/>
+    <mergeCell ref="F5:O5"/>
+    <mergeCell ref="B7:O7"/>
+    <mergeCell ref="B2:D5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:K11"/>
     <mergeCell ref="L11:M11"/>
@@ -4496,20 +4457,60 @@
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="F2:O2"/>
-    <mergeCell ref="F3:O3"/>
-    <mergeCell ref="F4:O4"/>
-    <mergeCell ref="F5:O5"/>
-    <mergeCell ref="B7:O7"/>
-    <mergeCell ref="B2:D5"/>
+    <mergeCell ref="C18:O18"/>
+    <mergeCell ref="C39:O39"/>
+    <mergeCell ref="C42:O42"/>
+    <mergeCell ref="C45:O45"/>
+    <mergeCell ref="C48:O48"/>
+    <mergeCell ref="C51:O51"/>
+    <mergeCell ref="C54:O54"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="F62:O62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="F63:O63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="F64:O64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="F65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="F66:O66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="F67:O67"/>
+    <mergeCell ref="B68:O68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="F69:O69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="F70:O70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="F71:O71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="F72:O72"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="J73:O73"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="J74:O74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:O76"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="J77:L77"/>
+    <mergeCell ref="M77:O77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="J78:L78"/>
+    <mergeCell ref="M78:O78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="J79:L79"/>
+    <mergeCell ref="M79:O79"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.196527777777778" bottom="0.196527777777778" header="0.29861111111111099" footer="0.29861111111111099"/>
